--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_42.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_42.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>isophonics_175</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_297</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09707602339181287</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['C', 'G', 'A:min', 'A:min/b7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(48.0, 52.2)]</t>
+          <t>[['G', 'D', 'E:min/b3', 'E:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.34, 4.84)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.175157', '0:00:05.126371')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:15.006624', '0:00:18.675377')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1853658536585366</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D', 'A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db']]</t>
+          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min'], ['C:min', 'C:min/G', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(126.99, 135.953)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min', 'G:min/D'], ['A#:maj', 'G:min/D', 'D:7', 'G:min'], ['G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(264.615, 284.174)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:26.960000', '0:00:33.500000'), ('0:01:12.680000', '0:01:18.700000'), ('0:00:25.880000', '0:00:30.840000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:41.920000', '0:00:51.280000'), ('0:00:38.940000', '0:00:49'), ('0:00:45.940000', '0:00:59.040000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1101190476190476</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>isophonics_21</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1366459627329192</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['G:7', 'C', 'C/b7'], ['C', 'G/3', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7)]</t>
+          <t>[['A#:7', 'D#:maj', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(7.668956, 11.14034)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:34.041000', '0:00:38.588000'), ('0:00:41.655000', '0:00:46.220000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:04.580000', '0:01:13.880000'), ('0:00:00.780000', '0:00:19.180000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09018567639257294</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.3, 113.78)]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(5.46, 126.86)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:13.980000', '0:00:21.500000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:19.480000', '0:00:25.860000'), ('0:00:09.140000', '0:00:16.920000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_183</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1108870967741935</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>[['D', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.0, 21.5)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(126.62, 129.24)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:09.520470', '0:01:14.942329')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:08.960000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[('0:00:30.160000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1057579318448884</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Bb']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(20.130022, 25.095075)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(22.297528, 25.374172)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(63.84, 65.24), (62.2, 64.4)]</t>
+          <t>[['C', 'F', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(76.56, 87.04), (21.58, 29.34)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:04.440000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:32.970680')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_75</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1718426501035197</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb:maj6', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:maj6', 'Eb:7', 'Ab']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(83.49, 94.43)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(21.78, 28.48)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:54.180000', '0:01:01.460000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.9, 20.08)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.07, 19.25)]</t>
+          <t>[('0:01:03.840000', '0:01:05.240000'), ('0:01:02.200000', '0:01:04.400000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:00.260000', '0:00:07.340000'), ('0:00:52.740000', '0:01:00.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.194331983805668</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(124.3, 129.24), (1.0, 5.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:08.080000', '0:01:27.320000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'D#/G', 'C:min/G'], ['C:min', 'F:min', 'C:min/G'], ['G', 'C:min', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7333333333333334</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'C', 'A:min'], ['A:min', 'D:min', 'A:min'], ['E', 'A:min', 'A:min'], ['A:min', 'E', 'A:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.3, 63.68), (7.22, 10.76), (12.92, 18.54), (11.82, 16.4)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.84, 26.811), (35.888, 38.359), (48.396, 52.899), (12.824, 20.865)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_201</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_125</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:(3,b5,b7)/F#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#', 'G:maj', 'D:(3,b5,b7)/G#']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(37.82, 42.82)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(48.44, 53.48)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3095238095238095</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.82, 26.2)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.16, 52.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:27.440000', '0:01:50.440000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230195712954334</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G', 'C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(9.898503, 16.109841)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(16.26, 24.34)]</t>
+          <t>[('0:00:00.780000', '0:01:36.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_160</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_52</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1199186991869919</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'F']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(80.42, 84.64)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(62.53, 66.23)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
